--- a/biology/Médecine/Orientation_sexuelle_égodystonique/Orientation_sexuelle_égodystonique.xlsx
+++ b/biology/Médecine/Orientation_sexuelle_égodystonique/Orientation_sexuelle_égodystonique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Orientation_sexuelle_%C3%A9godystonique</t>
+          <t>Orientation_sexuelle_égodystonique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L’orientation sexuelle égodystonique est une ancienne catégorie diagnostique qui était employée pour caractériser une perception de l'orientation sexuelle vécue comme  l'expérience d'une attirance étrange ne correspondant pas à l'image de soi idéalisée, causant une anxiété et un désir pour l'individu de changer ou modifier son orientation sexuelle. 
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Orientation_sexuelle_%C3%A9godystonique</t>
+          <t>Orientation_sexuelle_égodystonique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'homosexualité ego-dystonique a été introduite comme diagnostic de santé mentale en 1980 avec la publication du DSM-III. Elle a été supprimée du DSM-III-R en 1987. L'orientation sexuelle ego-dystonique a été introduite dans la CIM-10 en 1990, et a été supprimée de la CIM-11 en 2019. 
-L'Organisation mondiale de la santé listait l'orientation sexuelle égodystonique dans le CIM-10, en tant que trouble du développement sexuel et de l'orientation sexuelle. Le diagnostic de l'OMS pouvait être attribué à un patient à l'identité ou l'orientation sexuelle clairement déterminée, mais souffrant d'un trouble psychologique ou comportemental qui le pousse à vouloir changer son orientation sexuelle. Le manuel spécifiait cependant que l'orientation sexuelle n'est pas un trouble en elle-même[1].
+L'Organisation mondiale de la santé listait l'orientation sexuelle égodystonique dans le CIM-10, en tant que trouble du développement sexuel et de l'orientation sexuelle. Le diagnostic de l'OMS pouvait être attribué à un patient à l'identité ou l'orientation sexuelle clairement déterminée, mais souffrant d'un trouble psychologique ou comportemental qui le pousse à vouloir changer son orientation sexuelle. Le manuel spécifiait cependant que l'orientation sexuelle n'est pas un trouble en elle-même.
 La catégorie diagnostique d'« homosexualité égodystonique » a été retirée du DSM, publié par l'Association américaine de psychiatrie, en 1987 (avec la publication du DSM-III-R).
 </t>
         </is>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Orientation_sexuelle_%C3%A9godystonique</t>
+          <t>Orientation_sexuelle_égodystonique</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,10 +558,12 @@
           <t>Diagnostic</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Lorsque l'Organisation mondiale de la santé retire l'homosexualité en tant que trouble mental dans la CIM-10, elle inclut le diagnostic orientation sexuelle égodystonique sous « Problèmes psychologiques et comportementaux associés au développement sexuel et à l'orientation sexuelle ».
-« L'identité de genre ou l'orientation sexuelle n'est pas remise en doute, mais la personne souhaite qu'elle soit différente à cause de troubles psychologiques ou comportementaux associés, et elle peut éventuellement demander un traitement afin d'en changer[1]. »
+« L'identité de genre ou l'orientation sexuelle n'est pas remise en doute, mais la personne souhaite qu'elle soit différente à cause de troubles psychologiques ou comportementaux associés, et elle peut éventuellement demander un traitement afin d'en changer. »
 </t>
         </is>
       </c>
